--- a/exel calc/TDS Newest.xlsx
+++ b/exel calc/TDS Newest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azriel\Documents\Github\Niagara\exel calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\College\Semester 6\Pharos\Notes Ambil Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0074996B-8AE4-46E8-94DE-DAB00C671BB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36BC1D1-54DE-4FD8-BB01-822538DDE09D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D5123C3E-095F-4ADB-B938-A98FA403B30A}"/>
+    <workbookView xWindow="3020" yWindow="680" windowWidth="14400" windowHeight="7360" xr2:uid="{D5123C3E-095F-4ADB-B938-A98FA403B30A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>TDS (ppm)</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>ppm</t>
+  </si>
+  <si>
+    <t>Actual ppm</t>
+  </si>
+  <si>
+    <t>y = 159.88e0.564x</t>
+  </si>
+  <si>
+    <t>v1</t>
   </si>
 </sst>
 </file>
@@ -138,6 +147,994 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.6800087489063869E-3"/>
+                  <c:y val="8.2294400699912517E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9566666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5026666666666673</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9466666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>299.72287020222478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499.53811700370795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>749.30717550556187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990.15591048949238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1252.2560044425934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1496.5986394557824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1746.031746031746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9518-4560-8669-0A17A8B92888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="573260336"/>
+        <c:axId val="573258696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="573260336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573258696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573258696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573260336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF74D10-7EC6-424F-B5BF-EB467A1B8E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40236397-190F-4012-BCA8-9855BC266838}">
-  <dimension ref="A2:O21"/>
+  <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,332 +1445,552 @@
     <col min="2" max="2" width="11.6328125" customWidth="1"/>
     <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="12" max="12" width="12.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>300</v>
-      </c>
-      <c r="C5">
-        <v>1.34</v>
+      <c r="B5" s="4">
+        <f t="shared" ref="B5:B13" si="0">(E5+F5+G5)/3</f>
+        <v>1.286</v>
+      </c>
+      <c r="C5" s="5">
+        <v>299.72287020222478</v>
       </c>
       <c r="E5">
-        <v>300</v>
-      </c>
-      <c r="K5">
-        <v>300</v>
-      </c>
-      <c r="L5" s="5">
-        <f>N5*B5/B6</f>
-        <v>18</v>
-      </c>
-      <c r="M5" s="5">
-        <f>N5-L5</f>
-        <v>12</v>
-      </c>
-      <c r="N5" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.278</v>
+      </c>
+      <c r="F5">
+        <v>1.29</v>
+      </c>
+      <c r="G5">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>500</v>
-      </c>
-      <c r="C6">
-        <v>2.39</v>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9566666666666668</v>
+      </c>
+      <c r="C6" s="5">
+        <v>499.53811700370795</v>
       </c>
       <c r="E6">
-        <v>500</v>
-      </c>
-      <c r="K6">
-        <v>500</v>
-      </c>
-      <c r="L6" s="5">
-        <f>N6*B6/B7</f>
-        <v>32</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" ref="M6:M13" si="0">N6-L6</f>
-        <v>16</v>
-      </c>
-      <c r="N6" s="7">
-        <f>30+L5</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.94</v>
+      </c>
+      <c r="F6">
+        <v>1.96</v>
+      </c>
+      <c r="G6">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
-        <v>750</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6199999999999997</v>
+      </c>
+      <c r="C7" s="7">
+        <v>749.30717550556187</v>
       </c>
       <c r="E7">
-        <v>750</v>
-      </c>
-      <c r="K7">
-        <v>750</v>
-      </c>
-      <c r="L7" s="5">
-        <f>N7*B7/B8</f>
-        <v>46.5</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="N7" s="7">
-        <f>30+L6</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.59</v>
+      </c>
+      <c r="F7">
+        <v>2.63</v>
+      </c>
+      <c r="G7">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="C8" s="7">
+        <v>990.15591048949238</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="5">
-        <f>N8*B8/B9</f>
-        <v>61.2</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="0"/>
-        <v>15.299999999999997</v>
-      </c>
-      <c r="N8" s="5">
-        <f>30+L7</f>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.17</v>
+      </c>
+      <c r="G8">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>1250</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.6</v>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1252.2560044425934</v>
       </c>
       <c r="E9">
-        <v>1250</v>
-      </c>
-      <c r="K9">
-        <v>1250</v>
-      </c>
-      <c r="L9" s="5">
-        <f>N9*B9/B10</f>
-        <v>76</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="0"/>
-        <v>15.200000000000003</v>
-      </c>
-      <c r="N9" s="5">
-        <f>30+L8</f>
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.58</v>
+      </c>
+      <c r="F9">
+        <v>3.6</v>
+      </c>
+      <c r="G9">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>1500</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2.79</v>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>3.94</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1496.5986394557824</v>
       </c>
       <c r="E10">
-        <v>1500</v>
-      </c>
-      <c r="K10">
-        <v>1500</v>
-      </c>
-      <c r="L10" s="5">
-        <f>N10*B10/B11</f>
-        <v>90.857142857142861</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="0"/>
-        <v>15.142857142857139</v>
-      </c>
-      <c r="N10" s="5">
-        <f>30+L9</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.93</v>
+      </c>
+      <c r="F10">
+        <v>3.95</v>
+      </c>
+      <c r="G10">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>1750</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2.94</v>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2959999999999994</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1746.031746031746</v>
       </c>
       <c r="E11">
-        <v>1750</v>
-      </c>
-      <c r="K11">
-        <v>1750</v>
-      </c>
-      <c r="L11" s="5">
-        <f>N11*B11/B12</f>
-        <v>105.75</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="0"/>
-        <v>15.107142857142861</v>
-      </c>
-      <c r="N11" s="5">
-        <f>30+L10</f>
-        <v>120.85714285714286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.2649999999999997</v>
+      </c>
+      <c r="F11">
+        <v>4.298</v>
+      </c>
+      <c r="G11">
+        <v>4.3250000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5026666666666673</v>
+      </c>
+      <c r="C12" s="7">
         <v>2000</v>
       </c>
-      <c r="C12">
-        <v>3.18</v>
-      </c>
       <c r="E12">
-        <v>2000</v>
-      </c>
-      <c r="K12">
-        <v>2000</v>
-      </c>
-      <c r="L12" s="6">
-        <f>N12*B12/B13</f>
-        <v>108.6</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="0"/>
-        <v>27.150000000000006</v>
-      </c>
-      <c r="N12" s="5">
-        <f>L11+30</f>
-        <v>135.75</v>
-      </c>
-      <c r="O12">
-        <f>L12*2500/N12</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.45</v>
+      </c>
+      <c r="F12">
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="G12">
+        <v>4.5830000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9466666666666663</v>
+      </c>
+      <c r="C13" s="3">
         <v>2500</v>
       </c>
-      <c r="C13">
-        <v>3.58</v>
-      </c>
       <c r="E13">
+        <v>4.92</v>
+      </c>
+      <c r="F13">
+        <v>4.95</v>
+      </c>
+      <c r="G13">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>300</v>
+      </c>
+      <c r="C36" s="5">
+        <f>E36*B36/B37</f>
+        <v>36</v>
+      </c>
+      <c r="D36" s="5">
+        <f>E36-C36</f>
+        <v>24</v>
+      </c>
+      <c r="E36" s="5">
+        <v>60</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" ref="G36:G42" si="1">H36*G37/J36</f>
+        <v>299.72287020222478</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" ref="H36:H42" si="2">ROUND(C36,0)</f>
+        <v>36</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" ref="I36:I42" si="3">ROUND(D36,0)</f>
+        <v>24</v>
+      </c>
+      <c r="J36" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>500</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" ref="C37:C43" si="4">E37*B37/B38</f>
+        <v>44</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" ref="D37:D43" si="5">E37-C37</f>
+        <v>22</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" ref="E37:E42" si="6">30+C36</f>
+        <v>66</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="1"/>
+        <v>499.53811700370795</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" ref="J37:J42" si="7">30+H36</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>750</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="4"/>
+        <v>55.5</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="5"/>
+        <v>18.5</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="1"/>
+        <v>749.30717550556187</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="5"/>
+        <v>17.099999999999994</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="6"/>
+        <v>85.5</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="1"/>
+        <v>990.15591048949238</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>1250</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="5"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="6"/>
+        <v>98.4</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="1"/>
+        <v>1252.2560044425934</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>1500</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="1"/>
+        <v>1496.5986394557824</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>1750</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="4"/>
+        <v>110.25</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="5"/>
+        <v>15.75</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="1"/>
+        <v>1746.031746031746</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>2000</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="4"/>
+        <v>112.2</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="5"/>
+        <v>28.049999999999997</v>
+      </c>
+      <c r="E43" s="5">
+        <f>C42+30</f>
+        <v>140.25</v>
+      </c>
+      <c r="G43" s="5">
+        <f>H43*G44/J43</f>
+        <v>2000</v>
+      </c>
+      <c r="H43" s="5">
+        <f>ROUND(C43,0)</f>
+        <v>112</v>
+      </c>
+      <c r="I43" s="5">
+        <f>ROUND(D43,0)</f>
+        <v>28</v>
+      </c>
+      <c r="J43" s="5">
+        <f>H42+30</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44">
         <v>2500</v>
       </c>
-      <c r="F13">
-        <v>5.6</v>
-      </c>
-      <c r="K13">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="6">
+        <f>C43</f>
+        <v>112.2</v>
+      </c>
+      <c r="G44">
         <v>2500</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M14" s="4"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E17">
-        <v>2500</v>
-      </c>
-      <c r="G17">
-        <v>109</v>
-      </c>
-      <c r="H17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E19">
-        <v>2000</v>
-      </c>
-      <c r="G19">
-        <v>91</v>
-      </c>
-      <c r="H19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E21">
-        <v>1750</v>
-      </c>
-      <c r="G21">
-        <v>76</v>
-      </c>
+      <c r="J44" s="6">
+        <f>H43</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>